--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>所在场景</t>
   </si>
@@ -287,33 +287,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>道士:3</t>
+    <t>法师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnPos[][funcEval]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed[][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>771.5861, 211.0021, 776.5501</t>
+  </si>
+  <si>
+    <t>771.5861, 211.0021, 776.5501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼:6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>战士</t>
-  </si>
-  <si>
-    <t>道士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-97.9299,0,-158.922</t>
-  </si>
-  <si>
-    <t>spawnPos[][funcEval]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed[][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -826,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -875,7 +904,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>63</v>
@@ -887,7 +916,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>29</v>
@@ -985,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1056,7 +1085,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>54</v>
@@ -1071,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1154,7 +1183,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>69</v>
@@ -1251,8 +1280,8 @@
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="1" t="s">
-        <v>74</v>
+      <c r="A5" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>70</v>
@@ -1345,6 +1374,300 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10011021</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>158</v>
+      </c>
+      <c r="L6" s="6">
+        <v>158</v>
+      </c>
+      <c r="M6" s="6">
+        <v>97</v>
+      </c>
+      <c r="N6" s="6">
+        <v>97</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>10</v>
+      </c>
+      <c r="R6" s="6">
+        <v>50</v>
+      </c>
+      <c r="S6" s="6">
+        <v>13</v>
+      </c>
+      <c r="T6" s="6">
+        <v>5</v>
+      </c>
+      <c r="U6" s="6">
+        <v>15</v>
+      </c>
+      <c r="V6" s="6">
+        <v>12</v>
+      </c>
+      <c r="W6" s="6">
+        <v>10</v>
+      </c>
+      <c r="X6" s="6">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10011021</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>158</v>
+      </c>
+      <c r="L7" s="6">
+        <v>158</v>
+      </c>
+      <c r="M7" s="6">
+        <v>97</v>
+      </c>
+      <c r="N7" s="6">
+        <v>97</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6">
+        <v>50</v>
+      </c>
+      <c r="S7" s="6">
+        <v>13</v>
+      </c>
+      <c r="T7" s="6">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6">
+        <v>15</v>
+      </c>
+      <c r="V7" s="6">
+        <v>12</v>
+      </c>
+      <c r="W7" s="6">
+        <v>10</v>
+      </c>
+      <c r="X7" s="6">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>55</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>20</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10011021</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>158</v>
+      </c>
+      <c r="L8" s="6">
+        <v>158</v>
+      </c>
+      <c r="M8" s="6">
+        <v>97</v>
+      </c>
+      <c r="N8" s="6">
+        <v>97</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>10</v>
+      </c>
+      <c r="R8" s="6">
+        <v>50</v>
+      </c>
+      <c r="S8" s="6">
+        <v>13</v>
+      </c>
+      <c r="T8" s="6">
+        <v>5</v>
+      </c>
+      <c r="U8" s="6">
+        <v>15</v>
+      </c>
+      <c r="V8" s="6">
+        <v>12</v>
+      </c>
+      <c r="W8" s="6">
+        <v>10</v>
+      </c>
+      <c r="X8" s="6">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>55</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>20</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1365,7 +1688,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
@@ -1407,20 +1730,26 @@
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="6"/>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>所在场景</t>
   </si>
@@ -343,6 +343,10 @@
   </si>
   <si>
     <t>盗贼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelScale[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -867,27 +871,28 @@
     <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1"/>
     <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="1"/>
-    <col min="10" max="10" width="10.6640625" style="6"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="10.6640625" style="1"/>
-    <col min="20" max="20" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="31" width="10.6640625" style="1"/>
-    <col min="32" max="32" width="18.21875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.6640625" style="1"/>
+    <col min="5" max="5" width="19.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" style="1"/>
+    <col min="11" max="11" width="10.6640625" style="6"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="10.6640625" style="1"/>
+    <col min="21" max="21" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="10.6640625" style="1"/>
+    <col min="33" max="33" width="18.21875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -901,91 +906,94 @@
         <v>65</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1">
+    <row r="2" spans="1:33" s="4" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -998,92 +1006,93 @@
       <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
@@ -1094,94 +1103,97 @@
         <v>55</v>
       </c>
       <c r="D3" s="1">
-        <v>10011001</v>
-      </c>
-      <c r="E3" s="8">
+        <v>90000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>5.5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>158</v>
       </c>
       <c r="L3" s="1">
         <v>158</v>
       </c>
       <c r="M3" s="1">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="N3" s="1">
         <v>97</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>150</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>10</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>50</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>13</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>5</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>15</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>12</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>10</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>48</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>15</v>
       </c>
       <c r="Z3" s="1">
         <v>15</v>
       </c>
       <c r="AA3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="1">
         <v>55</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>19</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>11</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <v>20</v>
       </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
       <c r="AF3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -1192,94 +1204,97 @@
         <v>55</v>
       </c>
       <c r="D4" s="1">
-        <v>10011011</v>
-      </c>
-      <c r="E4" s="8">
+        <v>90000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>5.5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>158</v>
       </c>
       <c r="L4" s="1">
         <v>158</v>
       </c>
       <c r="M4" s="1">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="N4" s="1">
         <v>97</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>150</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>50</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>13</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>5</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>15</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>12</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>10</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>48</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>15</v>
       </c>
       <c r="Z4" s="1">
         <v>15</v>
       </c>
       <c r="AA4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="1">
         <v>55</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>19</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>11</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>20</v>
       </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
       <c r="AF4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -1290,94 +1305,97 @@
         <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>10011021</v>
-      </c>
-      <c r="E5" s="8">
+        <v>90000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>5.5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>158</v>
       </c>
       <c r="L5" s="1">
         <v>158</v>
       </c>
       <c r="M5" s="1">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="N5" s="1">
         <v>97</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>150</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>10</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>50</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>13</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>5</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>15</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>12</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>10</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>48</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>15</v>
       </c>
       <c r="Z5" s="1">
         <v>15</v>
       </c>
       <c r="AA5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="1">
         <v>55</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>19</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>11</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>20</v>
       </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
       <c r="AF5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
@@ -1388,94 +1406,97 @@
         <v>55</v>
       </c>
       <c r="D6" s="6">
-        <v>10011021</v>
-      </c>
-      <c r="E6" s="8">
+        <v>90000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
       </c>
       <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>5.5</v>
-      </c>
-      <c r="K6" s="6">
-        <v>158</v>
       </c>
       <c r="L6" s="6">
         <v>158</v>
       </c>
       <c r="M6" s="6">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="N6" s="6">
         <v>97</v>
       </c>
       <c r="O6" s="6">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>150</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>10</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>50</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>13</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <v>5</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>15</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>12</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>10</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6">
         <v>48</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>15</v>
       </c>
       <c r="Z6" s="6">
         <v>15</v>
       </c>
       <c r="AA6" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="6">
         <v>55</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AC6" s="6">
         <v>19</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AD6" s="6">
         <v>11</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <v>20</v>
       </c>
-      <c r="AE6" s="6">
-        <v>0</v>
-      </c>
       <c r="AF6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
@@ -1486,94 +1507,97 @@
         <v>55</v>
       </c>
       <c r="D7" s="6">
-        <v>10011021</v>
-      </c>
-      <c r="E7" s="8">
+        <v>90000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>5.5</v>
-      </c>
-      <c r="K7" s="6">
-        <v>158</v>
       </c>
       <c r="L7" s="6">
         <v>158</v>
       </c>
       <c r="M7" s="6">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="N7" s="6">
         <v>97</v>
       </c>
       <c r="O7" s="6">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>150</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>10</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>50</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <v>13</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <v>5</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>15</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>12</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>10</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>48</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>15</v>
       </c>
       <c r="Z7" s="6">
         <v>15</v>
       </c>
       <c r="AA7" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="6">
         <v>55</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AC7" s="6">
         <v>19</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AD7" s="6">
         <v>11</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <v>20</v>
       </c>
-      <c r="AE7" s="6">
-        <v>0</v>
-      </c>
       <c r="AF7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -1584,90 +1608,93 @@
         <v>55</v>
       </c>
       <c r="D8" s="6">
-        <v>10011021</v>
-      </c>
-      <c r="E8" s="8">
+        <v>90000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>5.5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>158</v>
       </c>
       <c r="L8" s="6">
         <v>158</v>
       </c>
       <c r="M8" s="6">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="N8" s="6">
         <v>97</v>
       </c>
       <c r="O8" s="6">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>150</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>10</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>50</v>
       </c>
-      <c r="S8" s="6">
+      <c r="T8" s="6">
         <v>13</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <v>5</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>15</v>
       </c>
-      <c r="V8" s="6">
+      <c r="W8" s="6">
         <v>12</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>10</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="6">
         <v>48</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>15</v>
       </c>
       <c r="Z8" s="6">
         <v>15</v>
       </c>
       <c r="AA8" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB8" s="6">
         <v>55</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AC8" s="6">
         <v>19</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AD8" s="6">
         <v>11</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <v>20</v>
       </c>
-      <c r="AE8" s="6">
-        <v>0</v>
-      </c>
       <c r="AF8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="6">
         <v>0</v>
       </c>
     </row>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/avatar_init.xlsx
@@ -299,10 +299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>moveSpeed[][funcFloat]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>771.5861, 211.0021, 776.5501</t>
   </si>
   <si>
@@ -347,6 +343,10 @@
   </si>
   <si>
     <t>modelScale[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed[][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +862,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -906,7 +906,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>47</v>
@@ -924,7 +924,7 @@
         <v>60</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>29</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>54</v>
@@ -1106,13 +1106,13 @@
         <v>90000001</v>
       </c>
       <c r="E3" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1">
         <v>158</v>
@@ -1207,13 +1207,13 @@
         <v>90000001</v>
       </c>
       <c r="E4" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1">
         <v>158</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>70</v>
@@ -1308,13 +1308,13 @@
         <v>90000001</v>
       </c>
       <c r="E5" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1">
         <v>158</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>70</v>
@@ -1409,13 +1409,13 @@
         <v>90000001</v>
       </c>
       <c r="E6" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="L6" s="6">
         <v>158</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>70</v>
@@ -1510,13 +1510,13 @@
         <v>90000001</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="L7" s="6">
         <v>158</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>70</v>
@@ -1611,13 +1611,13 @@
         <v>90000001</v>
       </c>
       <c r="E8" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="L8" s="6">
         <v>158</v>
@@ -1757,7 +1757,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>62</v>
@@ -1765,17 +1765,17 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
